--- a/biology/Botanique/Liste_des_plantes_du_Canada_C/Liste_des_plantes_du_Canada_C.xlsx
+++ b/biology/Botanique/Liste_des_plantes_du_Canada_C/Liste_des_plantes_du_Canada_C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Voici la liste des plantes du Canada. Les plantes indigènes au Canada sont indicées avec un  N, et les plantes introduites, le sont avec un  X.
 A | B | C | D | E | F | G | H | I | J | K | L | M | N | O | P | Q | R | S | T | U | V | W | XYZ
@@ -512,7 +524,9 @@
           <t>Ca</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cakile — roquettes de mer
 Cakile edentula — roquette de mer, caquillier édentulé
@@ -612,7 +626,9 @@
           <t>Ce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ceanothus — céanothes
 Ceanothus americanus — céanothe d'Amérique
@@ -662,7 +678,9 @@
           <t>Ch</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chaerophyllum
 Chaerophyllum procumbens var. procumbens
@@ -718,7 +736,9 @@
           <t>Ci</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cicuta — cicutaires
 Cicuta bulbifera — cicutaire bulbifère
@@ -766,7 +786,9 @@
           <t>Cl</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cladium — marisques
 Cladium mariscoides — marisque inerme, cladium faux-mariscus
@@ -807,7 +829,9 @@
           <t>Co</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Coeloglossum
 Coeloglossum viride var. viriscens
@@ -886,7 +910,9 @@
           <t>Cr</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Crassula — tillées
 Crassula aquatica — tillée aquatique
@@ -964,7 +990,9 @@
           <t>Cu</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Cuscuta — cuscutes
 Cuscuta campestris
@@ -998,7 +1026,9 @@
           <t>Cy</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve"> Cycloloma — cyclolomas
 Cycloloma atriplicifolium — cycloloma à feuilles d'arroche
